--- a/docs/mcode-r4/shr-core-Money.xlsx
+++ b/docs/mcode-r4/shr-core-Money.xlsx
@@ -215,7 +215,7 @@
     <t>number</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Number-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Number-extension}
 </t>
   </si>
   <si>
@@ -225,7 +225,7 @@
     <t>comparator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Comparator-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Comparator-extension}
 </t>
   </si>
   <si>
@@ -235,7 +235,7 @@
     <t>units</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Units-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Units-extension}
 </t>
   </si>
   <si>
